--- a/Results/Mitigation_reverse/results_df_age_reverse.xlsx
+++ b/Results/Mitigation_reverse/results_df_age_reverse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC16"/>
+  <dimension ref="A1:AB17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,117 +466,112 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Norvegese</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Catalano</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Macedone</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Portoghese</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Croato</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Italiano</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Persiano</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Pakistano - Urdu</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Arabo</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Svedese</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Polacco</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Tedesco</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Finlandese</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Albanese</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Danese</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Ebraico</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
           <t>Spagnolo</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Ebraico</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Serbo</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Greco</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Catalano</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Cinese</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Bulgaro</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Rumeno</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Svedese</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Finlandese</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Polacco</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Croato</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Norvegese</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Cinese</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Portoghese</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Arabo</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Italiano</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Danese</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Macedone</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>Albanese</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>Pakistano - Urdu</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>Tedesco</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>Sloveno</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>Bulgaro</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>Persiano</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>Serbo</t>
         </is>
       </c>
     </row>
@@ -588,84 +583,81 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1843</v>
+        <v>290</v>
       </c>
       <c r="D2" t="n">
-        <v>1835</v>
+        <v>1857</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="F2" t="n">
-        <v>-911</v>
+        <v>2605</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J2" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="P2" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="Q2" t="n">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="R2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AA2" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -677,16 +669,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>46</v>
+        <v>1037</v>
       </c>
       <c r="D3" t="n">
-        <v>706</v>
+        <v>488</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>580</v>
+        <v>1329</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -695,13 +687,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -713,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -725,19 +717,19 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -749,12 +741,9 @@
         <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -766,19 +755,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>957</v>
+        <v>1858</v>
       </c>
       <c r="D4" t="n">
-        <v>1518</v>
+        <v>769</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>-192</v>
+        <v>2272</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -787,46 +776,46 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -835,15 +824,12 @@
         <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AA4" t="n">
         <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -855,84 +841,81 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>359</v>
+        <v>798</v>
       </c>
       <c r="D5" t="n">
-        <v>3082</v>
+        <v>1460</v>
       </c>
       <c r="E5" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F5" t="n">
-        <v>2767</v>
+        <v>24</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
         <v>5</v>
       </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>7</v>
-      </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q5" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AA5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>91</v>
-      </c>
-      <c r="AC5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -944,84 +927,81 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>2829</v>
+        <v>4112</v>
       </c>
       <c r="D6" t="n">
-        <v>2769</v>
+        <v>2085</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>-3157</v>
+        <v>462</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>92</v>
+      </c>
+      <c r="L6" t="n">
+        <v>8</v>
+      </c>
+      <c r="M6" t="n">
+        <v>140</v>
+      </c>
+      <c r="N6" t="n">
         <v>10</v>
       </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>65</v>
-      </c>
-      <c r="M6" t="n">
-        <v>6</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
+        <v>114</v>
+      </c>
+      <c r="P6" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q6" t="n">
         <v>2</v>
       </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>83</v>
-      </c>
       <c r="R6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>154</v>
+        <v>3</v>
       </c>
       <c r="T6" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="U6" t="n">
         <v>5</v>
       </c>
       <c r="V6" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z6" t="n">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="AA6" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AB6" t="n">
-        <v>188</v>
-      </c>
-      <c r="AC6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1033,84 +1013,81 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>-890</v>
+        <v>165</v>
       </c>
       <c r="D7" t="n">
-        <v>290</v>
+        <v>356</v>
       </c>
       <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>316</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>7</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>6</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
         <v>3</v>
       </c>
-      <c r="F7" t="n">
-        <v>874</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>10</v>
-      </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>3</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
         <v>2</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1</v>
-      </c>
-      <c r="S7" t="n">
-        <v>6</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1</v>
-      </c>
-      <c r="W7" t="n">
-        <v>3</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>0</v>
       </c>
       <c r="AA7" t="n">
         <v>2</v>
       </c>
       <c r="AB7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1122,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>490</v>
+        <v>854</v>
       </c>
       <c r="D8" t="n">
-        <v>246</v>
+        <v>338</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
       </c>
       <c r="F8" t="n">
-        <v>-998</v>
+        <v>1101</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1140,46 +1117,46 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1191,15 +1168,12 @@
         <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA8" t="n">
         <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1211,64 +1185,64 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>-539</v>
+        <v>-75</v>
       </c>
       <c r="D9" t="n">
-        <v>-3242</v>
+        <v>-2809</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>12061</v>
+        <v>-1065</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I9" t="n">
+        <v>16</v>
+      </c>
+      <c r="J9" t="n">
         <v>8</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
         <v>6</v>
       </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>24</v>
-      </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="P9" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="Q9" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>126</v>
+        <v>1</v>
       </c>
       <c r="T9" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1277,18 +1251,15 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AA9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1300,84 +1271,81 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>9028</v>
+        <v>5138</v>
       </c>
       <c r="D10" t="n">
-        <v>-10716</v>
+        <v>-3058</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>5267</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="P10" t="n">
         <v>10</v>
       </c>
       <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA10" t="n">
         <v>24</v>
       </c>
-      <c r="R10" t="n">
-        <v>2</v>
-      </c>
-      <c r="S10" t="n">
-        <v>152</v>
-      </c>
-      <c r="T10" t="n">
-        <v>6</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>4</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>26</v>
-      </c>
       <c r="AB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1389,84 +1357,81 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>230</v>
+        <v>26</v>
       </c>
       <c r="D11" t="n">
-        <v>2383</v>
+        <v>-2507</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>2710</v>
+        <v>4572</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="M11" t="n">
+        <v>134</v>
+      </c>
+      <c r="N11" t="n">
+        <v>4</v>
+      </c>
+      <c r="O11" t="n">
+        <v>109</v>
+      </c>
+      <c r="P11" t="n">
+        <v>52</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>6</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
         <v>5</v>
       </c>
-      <c r="N11" t="n">
-        <v>6</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>64</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1</v>
-      </c>
-      <c r="S11" t="n">
-        <v>147</v>
-      </c>
       <c r="T11" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>5</v>
       </c>
       <c r="V11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z11" t="n">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="AA11" t="n">
         <v>7</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1478,67 +1443,67 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>106</v>
+        <v>2487</v>
       </c>
       <c r="D12" t="n">
-        <v>2021</v>
+        <v>3902</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F12" t="n">
-        <v>3793</v>
+        <v>2191</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L12" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="M12" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>25</v>
+      </c>
+      <c r="P12" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q12" t="n">
         <v>4</v>
       </c>
-      <c r="O12" t="n">
-        <v>18</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>33</v>
-      </c>
       <c r="R12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="T12" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1547,15 +1512,12 @@
         <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AA12" t="n">
         <v>1</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1567,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>5147</v>
+        <v>4552</v>
       </c>
       <c r="D13" t="n">
-        <v>1119</v>
+        <v>1582</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F13" t="n">
-        <v>-4807</v>
+        <v>2892</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1585,66 +1547,63 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
+        <v>16</v>
+      </c>
+      <c r="J13" t="n">
+        <v>5</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>14</v>
+      </c>
+      <c r="M13" t="n">
+        <v>55</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>80</v>
+      </c>
+      <c r="P13" t="n">
         <v>7</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
         <v>7</v>
       </c>
-      <c r="M13" t="n">
-        <v>3</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>13</v>
-      </c>
-      <c r="R13" t="n">
-        <v>5</v>
-      </c>
-      <c r="S13" t="n">
-        <v>105</v>
-      </c>
-      <c r="T13" t="n">
-        <v>24</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>20</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0</v>
-      </c>
-      <c r="X13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>0</v>
-      </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AA13" t="n">
         <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>62</v>
-      </c>
-      <c r="AC13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1656,64 +1615,64 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>862</v>
+        <v>707</v>
       </c>
       <c r="D14" t="n">
-        <v>-361</v>
+        <v>-658</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-993</v>
+        <v>-391</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>44</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>74</v>
+      </c>
+      <c r="P14" t="n">
         <v>8</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>1</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3</v>
-      </c>
       <c r="Q14" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="R14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1725,15 +1684,12 @@
         <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AA14" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1745,16 +1701,16 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>8730</v>
+        <v>1466</v>
       </c>
       <c r="D15" t="n">
-        <v>-3750</v>
+        <v>-3723</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>4047</v>
+        <v>2594</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1766,63 +1722,60 @@
         <v>4</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1</v>
+      </c>
+      <c r="O15" t="n">
+        <v>68</v>
+      </c>
+      <c r="P15" t="n">
         <v>7</v>
       </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>79</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
       <c r="Q15" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
         <v>4</v>
       </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0</v>
-      </c>
       <c r="Z15" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="AA15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1834,84 +1787,167 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>696</v>
+        <v>-1160</v>
       </c>
       <c r="D16" t="n">
-        <v>-266</v>
+        <v>1561</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>4815</v>
+        <v>4071</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L16" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="N16" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="Q16" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" t="n">
+        <v>6</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>369</v>
+      </c>
+      <c r="D17" t="n">
+        <v>224</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>6612</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>5</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>7</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="n">
         <v>2</v>
       </c>
-      <c r="S16" t="n">
-        <v>24</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>12</v>
-      </c>
-      <c r="W16" t="n">
-        <v>12</v>
-      </c>
-      <c r="X16" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>4</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>69</v>
-      </c>
-      <c r="AC16" t="n">
+      <c r="AA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB17" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Results/Mitigation_reverse/results_df_age_reverse.xlsx
+++ b/Results/Mitigation_reverse/results_df_age_reverse.xlsx
@@ -583,49 +583,49 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>290</v>
+        <v>45.8</v>
       </c>
       <c r="D2" t="n">
-        <v>1857</v>
+        <v>14.61</v>
       </c>
       <c r="E2" t="n">
-        <v>51</v>
+        <v>0.42</v>
       </c>
       <c r="F2" t="n">
-        <v>2605</v>
+        <v>20.76</v>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>0.04</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I2" t="n">
-        <v>8</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>9</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>12</v>
+        <v>0.1</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4</v>
+        <v>0.03</v>
       </c>
       <c r="O2" t="n">
-        <v>77</v>
+        <v>0.64</v>
       </c>
       <c r="P2" t="n">
-        <v>19</v>
+        <v>0.16</v>
       </c>
       <c r="Q2" t="n">
-        <v>5</v>
+        <v>0.04</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>31</v>
+        <v>0.26</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -652,10 +652,10 @@
         <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>34</v>
+        <v>0.28</v>
       </c>
       <c r="AA2" t="n">
-        <v>12</v>
+        <v>0.1</v>
       </c>
       <c r="AB2" t="n">
         <v>0</v>
@@ -669,16 +669,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1037</v>
+        <v>68.54000000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>488</v>
+        <v>47.91</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1329</v>
+        <v>18.41</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -687,25 +687,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>0.39</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0.13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>0.13</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>3</v>
+        <v>0.39</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -717,10 +717,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>0.13</v>
       </c>
       <c r="T3" t="n">
-        <v>3</v>
+        <v>0.39</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -729,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>35</v>
+        <v>4.57</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -755,19 +755,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1858</v>
+        <v>59.88</v>
       </c>
       <c r="D4" t="n">
-        <v>769</v>
+        <v>32.56</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>2272</v>
+        <v>50.43</v>
       </c>
       <c r="G4" t="n">
-        <v>8</v>
+        <v>0.25</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -776,10 +776,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>0.16</v>
       </c>
       <c r="K4" t="n">
-        <v>20</v>
+        <v>0.63</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>22</v>
+        <v>0.7</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -803,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>0.03</v>
       </c>
       <c r="T4" t="n">
-        <v>5</v>
+        <v>0.16</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>6</v>
+        <v>0.19</v>
       </c>
       <c r="AA4" t="n">
         <v>0</v>
@@ -841,25 +841,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>798</v>
+        <v>48.7</v>
       </c>
       <c r="D5" t="n">
-        <v>1460</v>
+        <v>23.25</v>
       </c>
       <c r="E5" t="n">
-        <v>9</v>
+        <v>0.09</v>
       </c>
       <c r="F5" t="n">
-        <v>24</v>
+        <v>10.49</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>0.03</v>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>0.04</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="M5" t="n">
-        <v>46</v>
+        <v>0.45</v>
       </c>
       <c r="N5" t="n">
-        <v>3</v>
+        <v>0.03</v>
       </c>
       <c r="O5" t="n">
-        <v>40</v>
+        <v>0.39</v>
       </c>
       <c r="P5" t="n">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -892,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>26</v>
+        <v>0.25</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>20</v>
+        <v>0.19</v>
       </c>
       <c r="AA5" t="n">
         <v>0</v>
@@ -927,61 +927,61 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>4112</v>
+        <v>52.1</v>
       </c>
       <c r="D6" t="n">
-        <v>2085</v>
+        <v>11.77</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>462</v>
+        <v>22.23</v>
       </c>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>0.03</v>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>0.05</v>
       </c>
       <c r="I6" t="n">
-        <v>23</v>
+        <v>0.15</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="K6" t="n">
-        <v>92</v>
+        <v>0.6</v>
       </c>
       <c r="L6" t="n">
-        <v>8</v>
+        <v>0.05</v>
       </c>
       <c r="M6" t="n">
-        <v>140</v>
+        <v>0.92</v>
       </c>
       <c r="N6" t="n">
-        <v>10</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O6" t="n">
-        <v>114</v>
+        <v>0.75</v>
       </c>
       <c r="P6" t="n">
-        <v>50</v>
+        <v>0.33</v>
       </c>
       <c r="Q6" t="n">
-        <v>2</v>
+        <v>0.01</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>3</v>
+        <v>0.02</v>
       </c>
       <c r="T6" t="n">
-        <v>22</v>
+        <v>0.14</v>
       </c>
       <c r="U6" t="n">
-        <v>5</v>
+        <v>0.03</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -993,13 +993,13 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>3</v>
+        <v>0.02</v>
       </c>
       <c r="Z6" t="n">
-        <v>63</v>
+        <v>0.41</v>
       </c>
       <c r="AA6" t="n">
-        <v>7</v>
+        <v>0.05</v>
       </c>
       <c r="AB6" t="n">
         <v>0</v>
@@ -1013,16 +1013,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>165</v>
+        <v>68.37</v>
       </c>
       <c r="D7" t="n">
-        <v>356</v>
+        <v>58.02</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>316</v>
+        <v>32.51</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1031,28 +1031,28 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="K7" t="n">
-        <v>7</v>
+        <v>1.02</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>6</v>
+        <v>0.87</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>3</v>
+        <v>0.44</v>
       </c>
       <c r="P7" t="n">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1064,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>3</v>
+        <v>0.44</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1082,10 +1082,10 @@
         <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>2</v>
+        <v>0.29</v>
       </c>
       <c r="AA7" t="n">
-        <v>2</v>
+        <v>0.29</v>
       </c>
       <c r="AB7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>854</v>
+        <v>63.61</v>
       </c>
       <c r="D8" t="n">
-        <v>338</v>
+        <v>29.75</v>
       </c>
       <c r="E8" t="n">
-        <v>10</v>
+        <v>0.79</v>
       </c>
       <c r="F8" t="n">
-        <v>1101</v>
+        <v>29.51</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1117,25 +1117,25 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0.08</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>5</v>
+        <v>0.4</v>
       </c>
       <c r="L8" t="n">
-        <v>2</v>
+        <v>0.16</v>
       </c>
       <c r="M8" t="n">
-        <v>6</v>
+        <v>0.47</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>5</v>
+        <v>0.4</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1168,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>1</v>
+        <v>0.08</v>
       </c>
       <c r="AA8" t="n">
         <v>0</v>
@@ -1185,34 +1185,34 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>-75</v>
+        <v>42.73</v>
       </c>
       <c r="D9" t="n">
-        <v>-2809</v>
+        <v>23.12</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>-1065</v>
+        <v>18.48</v>
       </c>
       <c r="G9" t="n">
-        <v>4</v>
+        <v>0.02</v>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>0.02</v>
       </c>
       <c r="I9" t="n">
-        <v>16</v>
+        <v>0.08</v>
       </c>
       <c r="J9" t="n">
-        <v>8</v>
+        <v>0.04</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>6</v>
+        <v>0.03</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -1221,10 +1221,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>91</v>
+        <v>0.45</v>
       </c>
       <c r="P9" t="n">
-        <v>22</v>
+        <v>0.11</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1251,13 +1251,13 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>6</v>
+        <v>0.03</v>
       </c>
       <c r="Z9" t="n">
-        <v>26</v>
+        <v>0.13</v>
       </c>
       <c r="AA9" t="n">
-        <v>9</v>
+        <v>0.04</v>
       </c>
       <c r="AB9" t="n">
         <v>0</v>
@@ -1271,34 +1271,34 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>5138</v>
+        <v>56.27</v>
       </c>
       <c r="D10" t="n">
-        <v>-3058</v>
+        <v>44.09</v>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>0.05</v>
       </c>
       <c r="F10" t="n">
-        <v>5267</v>
+        <v>27.63</v>
       </c>
       <c r="G10" t="n">
-        <v>6</v>
+        <v>0.04</v>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>0.03</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>0.02</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>0.02</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>112</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="P10" t="n">
-        <v>10</v>
+        <v>0.06</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1319,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1337,13 +1337,13 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>2</v>
+        <v>0.01</v>
       </c>
       <c r="Z10" t="n">
-        <v>23</v>
+        <v>0.14</v>
       </c>
       <c r="AA10" t="n">
-        <v>24</v>
+        <v>0.15</v>
       </c>
       <c r="AB10" t="n">
         <v>0</v>
@@ -1357,61 +1357,61 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>26</v>
+        <v>50.9</v>
       </c>
       <c r="D11" t="n">
-        <v>-2507</v>
+        <v>43.85</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>4572</v>
+        <v>24.82</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>0.01</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0.01</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>0.01</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>20</v>
+        <v>0.11</v>
       </c>
       <c r="M11" t="n">
-        <v>134</v>
+        <v>0.73</v>
       </c>
       <c r="N11" t="n">
-        <v>4</v>
+        <v>0.02</v>
       </c>
       <c r="O11" t="n">
-        <v>109</v>
+        <v>0.59</v>
       </c>
       <c r="P11" t="n">
-        <v>52</v>
+        <v>0.28</v>
       </c>
       <c r="Q11" t="n">
-        <v>6</v>
+        <v>0.03</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>5</v>
+        <v>0.03</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>5</v>
+        <v>0.03</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1423,13 +1423,13 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="Z11" t="n">
-        <v>57</v>
+        <v>0.31</v>
       </c>
       <c r="AA11" t="n">
-        <v>7</v>
+        <v>0.04</v>
       </c>
       <c r="AB11" t="n">
         <v>0</v>
@@ -1443,34 +1443,34 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>2487</v>
+        <v>65.06999999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>3902</v>
+        <v>56.45</v>
       </c>
       <c r="E12" t="n">
-        <v>13</v>
+        <v>0.27</v>
       </c>
       <c r="F12" t="n">
-        <v>2191</v>
+        <v>37.91</v>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>0.06</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>7</v>
+        <v>0.15</v>
       </c>
       <c r="J12" t="n">
-        <v>3</v>
+        <v>0.06</v>
       </c>
       <c r="K12" t="n">
-        <v>15</v>
+        <v>0.31</v>
       </c>
       <c r="L12" t="n">
-        <v>5</v>
+        <v>0.1</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>25</v>
+        <v>0.52</v>
       </c>
       <c r="P12" t="n">
-        <v>9</v>
+        <v>0.19</v>
       </c>
       <c r="Q12" t="n">
-        <v>4</v>
+        <v>0.08</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>4</v>
+        <v>0.08</v>
       </c>
       <c r="T12" t="n">
-        <v>9</v>
+        <v>0.19</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1512,10 +1512,10 @@
         <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>27</v>
+        <v>0.57</v>
       </c>
       <c r="AA12" t="n">
-        <v>1</v>
+        <v>0.02</v>
       </c>
       <c r="AB12" t="n">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>4552</v>
+        <v>54.94</v>
       </c>
       <c r="D13" t="n">
-        <v>1582</v>
+        <v>9.4</v>
       </c>
       <c r="E13" t="n">
-        <v>19</v>
+        <v>0.11</v>
       </c>
       <c r="F13" t="n">
-        <v>2892</v>
+        <v>19.87</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1547,28 +1547,28 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>16</v>
+        <v>0.1</v>
       </c>
       <c r="J13" t="n">
-        <v>5</v>
+        <v>0.03</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>14</v>
+        <v>0.08</v>
       </c>
       <c r="M13" t="n">
-        <v>55</v>
+        <v>0.33</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>80</v>
+        <v>0.48</v>
       </c>
       <c r="P13" t="n">
-        <v>7</v>
+        <v>0.04</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -1577,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>2</v>
+        <v>0.01</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1595,10 +1595,10 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>7</v>
+        <v>0.04</v>
       </c>
       <c r="Z13" t="n">
-        <v>12</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AA13" t="n">
         <v>0</v>
@@ -1615,28 +1615,28 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>707</v>
+        <v>53.91</v>
       </c>
       <c r="D14" t="n">
-        <v>-658</v>
+        <v>28.75</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-391</v>
+        <v>31.58</v>
       </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>0.03</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>8</v>
+        <v>0.09</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1645,19 +1645,19 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>44</v>
+        <v>0.47</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>74</v>
+        <v>0.79</v>
       </c>
       <c r="P14" t="n">
-        <v>8</v>
+        <v>0.09</v>
       </c>
       <c r="Q14" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -1684,10 +1684,10 @@
         <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>13</v>
+        <v>0.14</v>
       </c>
       <c r="AA14" t="n">
-        <v>7</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AB14" t="n">
         <v>0</v>
@@ -1701,16 +1701,16 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1466</v>
+        <v>37.05</v>
       </c>
       <c r="D15" t="n">
-        <v>-3723</v>
+        <v>45.01</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>2594</v>
+        <v>9.06</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1719,28 +1719,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>0.03</v>
       </c>
       <c r="J15" t="n">
-        <v>5</v>
+        <v>0.03</v>
       </c>
       <c r="K15" t="n">
-        <v>62</v>
+        <v>0.43</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="O15" t="n">
-        <v>68</v>
+        <v>0.47</v>
       </c>
       <c r="P15" t="n">
-        <v>7</v>
+        <v>0.05</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -1767,10 +1767,10 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>4</v>
+        <v>0.03</v>
       </c>
       <c r="Z15" t="n">
-        <v>27</v>
+        <v>0.19</v>
       </c>
       <c r="AA15" t="n">
         <v>0</v>
@@ -1787,58 +1787,58 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>-1160</v>
+        <v>52.17</v>
       </c>
       <c r="D16" t="n">
-        <v>1561</v>
+        <v>66.95</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>4071</v>
+        <v>37.62</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0.04</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>4</v>
+        <v>0.15</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>25</v>
+        <v>0.92</v>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>0.04</v>
       </c>
       <c r="M16" t="n">
-        <v>44</v>
+        <v>1.62</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>16</v>
+        <v>0.59</v>
       </c>
       <c r="P16" t="n">
-        <v>11</v>
+        <v>0.41</v>
       </c>
       <c r="Q16" t="n">
-        <v>5</v>
+        <v>0.18</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>1</v>
+        <v>0.04</v>
       </c>
       <c r="T16" t="n">
-        <v>6</v>
+        <v>0.22</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1853,13 +1853,13 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>1</v>
+        <v>0.04</v>
       </c>
       <c r="Z16" t="n">
-        <v>22</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AA16" t="n">
-        <v>3</v>
+        <v>0.11</v>
       </c>
       <c r="AB16" t="n">
         <v>0</v>
@@ -1873,22 +1873,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>369</v>
+        <v>43.48</v>
       </c>
       <c r="D17" t="n">
-        <v>224</v>
+        <v>42.57</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>6612</v>
+        <v>55.34</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0.09</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>5</v>
+        <v>0.45</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>4</v>
+        <v>0.36</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>7</v>
+        <v>0.63</v>
       </c>
       <c r="P17" t="n">
-        <v>3</v>
+        <v>0.27</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -1924,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1</v>
+        <v>0.09</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1942,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>2</v>
+        <v>0.18</v>
       </c>
       <c r="AA17" t="n">
         <v>0</v>
